--- a/biology/Médecine/Colostomie/Colostomie.xlsx
+++ b/biology/Médecine/Colostomie/Colostomie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une colostomie est une sorte de stomie qui permet de relier l'épithélium du côlon à la paroi de l'abdomen à la suite d'un acte chirurgical, pour traiter par exemple un cancer du côlon, un cancer du rectum ou un cancer de l'anus. Ainsi, le transit intestinal est dérivé vers l'extérieur et les matières fécales peuvent arriver dans un appareillage spécifique.
 Cet appareillage était anciennement appelé « anus artificiel » même si le seul point commun avec un anus est la possibilité pour la stomie de faire passer les excréments.
